--- a/Знакомство с базами данных (семинары)/Seminar_01/Seminar_01_HW.xlsx
+++ b/Знакомство с базами данных (семинары)/Seminar_01/Seminar_01_HW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDisk\РАБОЧЕЕ\IT\000_GB_4408_25-03-2023\Знакомство с базами данных (семинары)\Seminar_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB83DCC6-7EA7-43B1-9A73-F766CC732CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F603227B-1869-42CC-B699-9330DC3A0B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -560,6 +560,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,12 +583,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,7 +868,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,53 +1031,53 @@
       <c r="A12" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="53"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="57"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="57"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="57"/>
+      <c r="C16" s="59"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="53"/>
+      <c r="B20" s="55"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1133,10 +1133,10 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="55"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
